--- a/db desgin.xlsx
+++ b/db desgin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\batch83\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9F7E59-F959-4884-BFD9-A17C3D55EDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAA82D7-204A-44DC-A983-338D54D521E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{0C905C2A-AC57-4E56-B08A-031C29C616EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0C905C2A-AC57-4E56-B08A-031C29C616EC}"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>mi phone</t>
   </si>
   <si>
-    <t>category(FK) many to one</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>lenovo</t>
+  </si>
+  <si>
+    <t>categoryid(FK) many to one</t>
   </si>
 </sst>
 </file>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -514,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -537,7 +537,7 @@
         <v>9676622023</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDAE73E-579B-4179-873A-9CF91D1D1BE3}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -639,7 +639,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158CC432-81D8-4A80-9229-AD48CD0538E5}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
